--- a/config_8.24/extra_award_server.xlsx
+++ b/config_8.24/extra_award_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.24\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="task|任务配置" sheetId="2" r:id="rId1"/>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
   <si>
     <t>id|</t>
   </si>
@@ -185,6 +185,18 @@
   </si>
   <si>
     <t>_common_rank_ymshf_017_hldr_rank</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>extra_rank_type|排行榜类型</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ymshf_017_hldr_rank</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ymshf_017_hldr_rank</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -323,7 +335,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -414,6 +426,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -693,11 +708,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1565"/>
+  <dimension ref="A1:F1565"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -707,10 +722,11 @@
     <col min="3" max="3" width="30.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="68.125" style="2" customWidth="1"/>
     <col min="5" max="5" width="39.875" customWidth="1"/>
-    <col min="6" max="16384" width="11" style="3"/>
+    <col min="6" max="6" width="19.75" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="56.1" customHeight="1">
+    <row r="1" spans="1:6" ht="56.1" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -726,8 +742,11 @@
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="43.5" customHeight="1">
+      <c r="F1" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="43.5" customHeight="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -743,78 +762,81 @@
       <c r="E2" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="43.5" customHeight="1">
+      <c r="F2" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="43.5" customHeight="1">
       <c r="B3" s="9"/>
       <c r="C3" s="8"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:5" ht="43.5" customHeight="1">
+    <row r="4" spans="1:6" ht="43.5" customHeight="1">
       <c r="B4" s="9"/>
       <c r="C4" s="8"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:5" ht="43.5" customHeight="1">
+    <row r="5" spans="1:6" ht="43.5" customHeight="1">
       <c r="B5" s="9"/>
       <c r="C5" s="8"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:5" ht="43.5" customHeight="1">
+    <row r="6" spans="1:6" ht="43.5" customHeight="1">
       <c r="B6" s="9"/>
       <c r="C6" s="8"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="B7" s="9"/>
       <c r="C7" s="8"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="B8" s="9"/>
       <c r="C8" s="8"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="B10" s="9"/>
       <c r="C10" s="8"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="B11" s="9"/>
       <c r="C11" s="8"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" s="9" customFormat="1">
+    <row r="12" spans="1:6" s="9" customFormat="1">
       <c r="C12" s="8"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="B13" s="9"/>
       <c r="C13" s="8"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" s="9" customFormat="1">
+    <row r="14" spans="1:6" s="9" customFormat="1">
       <c r="C14" s="8"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="B15" s="9"/>
       <c r="C15" s="8"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" ht="18.75" customHeight="1">
+    <row r="16" spans="1:6" ht="18.75" customHeight="1">
       <c r="B16" s="9"/>
       <c r="C16" s="8"/>
       <c r="E16" s="2"/>
@@ -6757,10 +6779,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6769,11 +6791,11 @@
     <col min="2" max="2" width="36" style="3" customWidth="1"/>
     <col min="3" max="3" width="29.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="68.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="39.875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="39.375" customWidth="1"/>
+    <col min="5" max="6" width="39.875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="39.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27">
+    <row r="1" spans="1:8" ht="27">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -6789,14 +6811,17 @@
       <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1">
+    <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -6812,10 +6837,13 @@
       <c r="E2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="F2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -6831,139 +6859,165 @@
       <c r="E3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="F3" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="F4" s="11"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="9"/>
       <c r="E5" s="11"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="F5" s="11"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="7"/>
       <c r="C6" s="8"/>
       <c r="D6" s="7"/>
       <c r="E6" s="11"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="F6" s="11"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="7"/>
       <c r="C7" s="8"/>
       <c r="D7" s="7"/>
       <c r="E7" s="11"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="F7" s="11"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="7"/>
       <c r="B8" s="12"/>
       <c r="C8" s="7"/>
       <c r="D8"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="F8" s="10"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="7"/>
       <c r="E9" s="10"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="F9" s="10"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="7"/>
       <c r="E10" s="10"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="F10" s="10"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="7"/>
       <c r="E11" s="10"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="F11" s="10"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="7"/>
       <c r="E12" s="10"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="F12" s="10"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="7"/>
       <c r="E13" s="10"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="F13" s="10"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="7"/>
       <c r="E14" s="10"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="F14" s="10"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="7"/>
       <c r="E15" s="10"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="F15" s="10"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="7"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="F16" s="10"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="7"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="F17" s="10"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="7"/>
       <c r="E18" s="10"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="F18" s="10"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="7"/>
       <c r="E19" s="10"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="F19" s="10"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="7"/>
       <c r="E20" s="10"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="F20" s="10"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="7"/>
       <c r="E21" s="10"/>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="7"/>
       <c r="E22" s="10"/>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="7"/>
       <c r="E23" s="10"/>
-    </row>
-    <row r="24" spans="1:6" s="1" customFormat="1">
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:7" s="1" customFormat="1">
       <c r="A24" s="7"/>
       <c r="B24" s="3"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="10"/>
-    </row>
-    <row r="25" spans="1:6" s="1" customFormat="1">
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="1:7" s="1" customFormat="1">
       <c r="A25" s="7"/>
       <c r="B25" s="3"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="10"/>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="7"/>
       <c r="E26" s="10"/>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="7"/>
       <c r="C27" s="8"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:7">
       <c r="C28" s="13"/>
     </row>
   </sheetData>

--- a/config_8.24/extra_award_server.xlsx
+++ b/config_8.24/extra_award_server.xlsx
@@ -6781,8 +6781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
